--- a/classification/droptc/message/neo-bert/unfreeze/90995999/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/90995999/prediction.xlsx
@@ -586,12 +586,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ParamViolation', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2692,12 +2692,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/neo-bert/unfreeze/90995999/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/90995999/prediction.xlsx
@@ -586,12 +586,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ParamViolation']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['ParamViolation', 'SoftwareFault']</t>
+          <t>['ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2692,12 +2692,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
